--- a/Input Data/MA 2020 MinedDataTable.xlsx
+++ b/Input Data/MA 2020 MinedDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Tributary Research Consulting LLC\Contracts and Jobs\2025\FFS (M. Bender) OSRI Data and GIS\OSRI_Alaska_Food_Contamination\Input Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1653826E-59E8-8847-AF86-72DF502D306A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA472A4-4174-40B1-8525-BBAE73AE4983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{24B573EC-9B97-3A41-9D86-A74AF01EBAD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{24B573EC-9B97-3A41-9D86-A74AF01EBAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -291,10 +291,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167047</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -318,7 +318,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3302000" cy="3378200"/>
+          <a:ext cx="5610224" cy="5567722"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,37 +649,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB00E3A5-5792-C840-8494-C0F626FFA86F}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+    <sheetView zoomScale="65" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="6.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -717,7 +717,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -784,7 +784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -817,7 +817,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -850,7 +850,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -882,7 +882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -914,7 +914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -946,7 +946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -978,7 +978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>3</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>3</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>3</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>3</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>3</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>3</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>3</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>2</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>3</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>3</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>3</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>3</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>2</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>3</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>3</v>
       </c>
@@ -7418,9 +7418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85231664-F72F-E649-BEDB-EBDB05DEB7C9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
